--- a/biology/Médecine/Articulation_du_carpe/Articulation_du_carpe.xlsx
+++ b/biology/Médecine/Articulation_du_carpe/Articulation_du_carpe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les articulations du carpe (ou articulations intercarpiennes) sont les articulations qui unissent les huit os du carpe entre eux.
 Elles sont constituées de trois groupes d'articulations :
@@ -517,55 +529,171 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Articulations de la rangée proximale
-Les articulations de la rangée proximale sont des articulations planes.
+          <t>Articulations de la rangée proximale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les articulations de la rangée proximale sont des articulations planes.
 Le scaphoïde s'articule médialement avec le lunatum et le lunatum médialement avec le triquétrum..
 Le scaphoïde, le lunatum et le triquétrum sont reliés par des ligaments inter-carpiens dorsaux, palmaires et interosseux.
 Le ligament scapho-triquétral dorsal est un ligament intercarpien dorsal qui relie horizontalement les faces dorsales du scaphoïde et du triquétrum en passant au-dessus du capitatum sans s'y insérer..
 Le ligament scapho-triquétral palmaire est un ligament intercarpien palmaire qui relie le scaphoïde au triquétrum en passant au-dessus du lunatum sans s'y insérer. Il est placé profondément en arrière des tendons fléchisseurs et des ligaments extrinsèques du carpe.
 Le ligament interosseux scapho-lunaire relie le scaphoïde et le lunatum et le ligament interosseux luno-triquétral relie le lunatum et le triquétrum.
-Articulation de l'os pisiforme
-Le pisiforme est situé au même niveau que la rangée proximale mais en avant. il forme l'articulation de l'os pisiforme avec la face inféro-interne du triquétrum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Articulation_du_carpe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_du_carpe</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Articulations</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Articulations de la rangée proximale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Articulation de l'os pisiforme</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pisiforme est situé au même niveau que la rangée proximale mais en avant. il forme l'articulation de l'os pisiforme avec la face inféro-interne du triquétrum.
 Son système ligamentaire est constitué des ligaments piso-hamatum et piso-métacarpien.
-Articulations de la rangée distale
-Ces articulations sont également des articulations planes reliées par des ligaments inter-carpiens dorsaux, palmaires et interosseux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Articulation_du_carpe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_du_carpe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Articulations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Articulations de la rangée distale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces articulations sont également des articulations planes reliées par des ligaments inter-carpiens dorsaux, palmaires et interosseux.
 Le trapèze s'articule médialement avec le trapézoïde.
 Le trapèzoïde s'articule médialement avec le capitatum.
 Le capitatum s'articule médialement avec l'hamatum.
 Le ligament triquétro-trapézo-trapézoïdien est un ligament intercarpien dorsal qui contribue aux articulations du trapèze et du trapézoïde.
 Les ligaments capito-trapézien et capito-hamatal sont les ligaments intercarpiens palmaires qui contribue aux articulations du capitatum.
 Les ligaments interosseux trapézo-trapézoïdien, trapézoïdo-capital et capito-hamatal sont les ligaments interosseux qui contribuent à ces articulations.
-Articulation médio-carpienne
-Les faces inférieures des os de la rangée proximale du carpe forme une surface articulaire, ainsi que les faces supérieures des os de la rangée distale. Ces deux surfaces s'articulent pour former l'articulation médio-carpienne.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Articulation_du_carpe</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Articulation_du_carpe</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Articulations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Articulation médio-carpienne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les faces inférieures des os de la rangée proximale du carpe forme une surface articulaire, ainsi que les faces supérieures des os de la rangée distale. Ces deux surfaces s'articulent pour former l'articulation médio-carpienne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Articulation_du_carpe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Articulation_du_carpe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Membrane synoviale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La membrane synoviale du carpe est très étendue et délimite une cavité synoviale de forme très irrégulière.
 La partie supérieure de la cavité s'interpose entre les faces inférieures du scaphoïde, du lunatum et du triquétrum et les faces supérieures des os de la deuxième rangée.
